--- a/biology/Histoire de la zoologie et de la botanique/Ludwig_Georg_Courvoisier/Ludwig_Georg_Courvoisier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ludwig_Georg_Courvoisier/Ludwig_Georg_Courvoisier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ludwig Georg Courvoisier (né à Bâle le 10 novembre 1843 et mort le 8 avril 1918 dans la même ville est un chirurgien suisse originaire de Bâle[1]. Il est l'un des premiers médecins à retirer les calculs biliaires du canal cholédoque[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ludwig Georg Courvoisier (né à Bâle le 10 novembre 1843 et mort le 8 avril 1918 dans la même ville est un chirurgien suisse originaire de Bâle. Il est l'un des premiers médecins à retirer les calculs biliaires du canal cholédoque.
 </t>
         </is>
       </c>
@@ -511,13 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ludwig Georg Courvoisier naît à Bâle, fils de Georg Courvoisier, commerçant, et de Mary Lowndes, d'origine galloise. Il fait ses études de médecine à l'université de Bâle où il obtient son diplôme en 1868[3]. Il est chirurgien à l'hôpital des diaconesses de Riehen (1871-1918), puis privatdozent (1880), professeur extraordinaire (1888) et professeur ordinaire (1900) de chirurgie à l'université de Bâle. Il est député au Grand Conseil du canton de Bâle-Ville. Il épouse Leopoldine Sachs, originaire de Karlsruhe[3].
-Médecine
-En 1890, Courvoisier publie Casuistisch-statistische Beiträge zur Pathologie und Chirurgie der Gallenwege, un manuel de chirurgie biliaire dans lequel il introduit le signe médical connu sous le nom de signe de Courvoisier-Terrier[4].
-Entomologie
-Ludwig Courvoisier est un lépidoptériste amateur, spécialiste des Lycaenidae.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ludwig Georg Courvoisier naît à Bâle, fils de Georg Courvoisier, commerçant, et de Mary Lowndes, d'origine galloise. Il fait ses études de médecine à l'université de Bâle où il obtient son diplôme en 1868. Il est chirurgien à l'hôpital des diaconesses de Riehen (1871-1918), puis privatdozent (1880), professeur extraordinaire (1888) et professeur ordinaire (1900) de chirurgie à l'université de Bâle. Il est député au Grand Conseil du canton de Bâle-Ville. Il épouse Leopoldine Sachs, originaire de Karlsruhe.
 </t>
         </is>
       </c>
@@ -543,10 +553,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1890, Courvoisier publie Casuistisch-statistische Beiträge zur Pathologie und Chirurgie der Gallenwege, un manuel de chirurgie biliaire dans lequel il introduit le signe médical connu sous le nom de signe de Courvoisier-Terrier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ludwig_Georg_Courvoisier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ludwig_Georg_Courvoisier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Entomologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ludwig Courvoisier est un lépidoptériste amateur, spécialiste des Lycaenidae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ludwig_Georg_Courvoisier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ludwig_Georg_Courvoisier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>de Casuistisch-statistische Beiträge zur Pathologie und Chirurgie der Gallenwege.
 1910. Uebersicht über die um Basel gefundenen Lycaeniden. Verh. naturel. Gès. Bâle 21 : 153-164.
@@ -554,7 +640,7 @@
 1912. Javanische Lycaeniden gesammelt von Edw. Jacobson. Tijdschr. Ent. 55 : 15-19.
 1912. Ueber Zeichnungs-Aberrationen bei Lycaeniden. Deut. ent. Zeit. [Iris] 26, pp. [38-65, pls 4,5]
 1916. Über Männchenschuppen bei Lycaeniden Verh. naturel. Gès. Bâle 26, pp. [11-48, 2 pls]
-1920. Zur Synonymie des Genus Lycaena. Deutsche Entomologische Zeitschrift (Iris) [1914] 28 : 143-176 ; [1920] 34 : 230-262.</t>
+1920. Zur Synonymie des Genus Lycaena. Deutsche Entomologische Zeitschrift (Iris)  28 : 143-176 ;  34 : 230-262.</t>
         </is>
       </c>
     </row>
